--- a/data/state_election_results/washington_president.xlsx
+++ b/data/state_election_results/washington_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E433ED82-823B-EE43-8FB2-604162E3BECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A406E8EE-BA55-1A48-BF1A-423CB2969B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="7700" windowWidth="23640" windowHeight="11940" xr2:uid="{EA3F7FAC-5C6D-624B-BC98-D0DEC40146C5}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Yakima</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,32 +533,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6C75B-F26F-5F48-9B3E-317F3E3ED515}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>1814</v>
@@ -575,7 +573,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>4250</v>
@@ -592,7 +590,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>38706</v>
@@ -609,7 +607,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>19349</v>
@@ -626,7 +624,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>24721</v>
@@ -643,7 +641,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>140324</v>
@@ -660,7 +658,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>668</v>
@@ -677,7 +675,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>23938</v>
@@ -694,7 +692,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>7811</v>
@@ -711,7 +709,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>1486</v>
@@ -728,7 +726,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>13340</v>
@@ -745,7 +743,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>366</v>
@@ -762,7 +760,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>11819</v>
@@ -779,7 +777,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>17354</v>
@@ -796,7 +794,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>29213</v>
@@ -813,7 +811,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>17204</v>
@@ -830,7 +828,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>907310</v>
@@ -847,7 +845,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>90277</v>
@@ -864,7 +862,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>11421</v>
@@ -881,7 +879,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>5959</v>
@@ -898,7 +896,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>14520</v>
@@ -915,7 +913,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>1713</v>
@@ -932,7 +930,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>17269</v>
@@ -949,7 +947,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>8900</v>
@@ -966,7 +964,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>6794</v>
@@ -983,7 +981,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>2593</v>
@@ -1000,7 +998,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>249506</v>
@@ -1017,7 +1015,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>9725</v>
@@ -1034,7 +1032,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>38252</v>
@@ -1051,7 +1049,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>3192</v>
@@ -1068,7 +1066,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>256728</v>
@@ -1085,7 +1083,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>135765</v>
@@ -1102,7 +1100,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>7839</v>
@@ -1119,7 +1117,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>96608</v>
@@ -1136,7 +1134,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>1165</v>
@@ -1153,7 +1151,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>13690</v>
@@ -1170,7 +1168,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>83660</v>
@@ -1187,7 +1185,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>11184</v>
@@ -1204,7 +1202,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>43179</v>
